--- a/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
+++ b/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grouperenault-my.sharepoint.com/personal/agnes_lauret-extern_renault_com/Documents/Documents/Perso/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{A607C7AB-D8AE-4667-9929-D7756DF4AA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2EA7963-4C5A-4B3D-B352-FF9D453D5B3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2ED50-97F3-4AF4-AD62-BE0055DE07F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Seq/Plan</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Vignette</t>
+  </si>
+  <si>
+    <t>Time code</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -508,32 +511,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -551,7 +587,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,19 +598,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,12 +606,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,6 +615,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,9 +642,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -655,7 +682,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -761,7 +788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -903,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -914,88 +941,93 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="59" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1013,12 +1045,13 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="I4" s="29"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1036,10 +1069,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1057,10 +1091,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1080,10 +1115,11 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1099,10 +1135,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1122,10 +1159,11 @@
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1145,10 +1183,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1166,10 +1205,11 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="I11" s="29"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1189,10 +1229,11 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="178" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1210,67 +1251,71 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15" t="s">
+      <c r="I13" s="29"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>2</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1284,10 +1329,11 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1301,10 +1347,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23" t="s">
+      <c r="I18" s="29"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1318,16 +1365,17 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="I19" s="29"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="4"/>
@@ -1335,10 +1383,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1352,16 +1401,17 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="I21" s="29"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="4"/>
@@ -1369,16 +1419,17 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1388,24 +1439,26 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="I23" s="29"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="104.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
+++ b/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C2ED50-97F3-4AF4-AD62-BE0055DE07F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED6837-CFB0-440E-B0D7-FD4EF5EE5D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,110 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="9">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="9">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>Seq/Plan</t>
   </si>
@@ -68,21 +170,12 @@
     <t>La grand-mère se tient debout devant la cheminée</t>
   </si>
   <si>
-    <t>Caméra</t>
-  </si>
-  <si>
     <t>Celia et sa grand-mère se font un câlin.</t>
   </si>
   <si>
     <t>Plan général sur la maison</t>
   </si>
   <si>
-    <t>Plan moyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan d'ensemble, grand-mère de dos </t>
-  </si>
-  <si>
     <t>Ambiance forêt de nuit</t>
   </si>
   <si>
@@ -90,9 +183,6 @@
   </si>
   <si>
     <t>Vue de la maison dans son environnement</t>
-  </si>
-  <si>
-    <t>Champ/Contre-champ, grand-mère de face</t>
   </si>
   <si>
     <t>Durée</t>
@@ -136,9 +226,6 @@
     <t>Ambiance forêt de nuit (atténué)</t>
   </si>
   <si>
-    <t>Champ/Contre-champ, Celia de face</t>
-  </si>
-  <si>
     <t>1/7</t>
   </si>
   <si>
@@ -234,9 +321,6 @@
     <t>Les deux sœurs sont enveloppées dans une lumière magique</t>
   </si>
   <si>
-    <t>Les sœurs reprennent leur esprit</t>
-  </si>
-  <si>
     <t>Séquence animée</t>
   </si>
   <si>
@@ -268,7 +352,35 @@
     <t>Vignette</t>
   </si>
   <si>
-    <t>Time code</t>
+    <t>Les sœurs toujours en transe, ferment les yeux</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>Les deux sœurs tombent par terre</t>
+  </si>
+  <si>
+    <t>Caméra/Focale</t>
+  </si>
+  <si>
+    <t>Plan d'ensemble, grand-mère de dos 
+/35</t>
+  </si>
+  <si>
+    <t>Plan moyen
+/35</t>
+  </si>
+  <si>
+    <t>Champ/Contre-champ, grand-mère de face
+/50</t>
+  </si>
+  <si>
+    <t>Champ/Contre-champ, Celia de face
+/50</t>
+  </si>
+  <si>
+    <t>1/12</t>
   </si>
 </sst>
 </file>
@@ -318,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -515,39 +627,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -615,15 +701,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,6 +727,110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -941,56 +1133,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="59" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
+    <col min="9" max="9" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1002,66 +1191,67 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="10" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="I4" s="12" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -1069,396 +1259,437 @@
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="I5" s="12" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="12" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="12" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I8" s="12" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:10" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="12" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="177.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
+      <c r="D16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
         <v>2</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="104.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="18"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" ht="109" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:9" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
+++ b/01_WorkInProgress/01_PréProd/decoupage_technique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnes\Documents\Formation_studi\01_WorkInProgress\01_PréProd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED6837-CFB0-440E-B0D7-FD4EF5EE5D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046CF57C-0657-450F-9C5C-58DC89991078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8117A7CA-1509-4EF5-B34A-EF12076A8C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Seq/Plan</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>1/2</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>1/4</t>
   </si>
   <si>
     <t>1/5</t>
@@ -198,9 +192,6 @@
     <t>Cut</t>
   </si>
   <si>
-    <t>Zoom-in</t>
-  </si>
-  <si>
     <t>Lieu</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>Plan rapproché de la fenêtre</t>
   </si>
   <si>
-    <t>On distingue l'interieur à travers la vitre</t>
-  </si>
-  <si>
     <t>Ambiance forêt de nuit (atténué)</t>
   </si>
   <si>
@@ -381,6 +369,9 @@
   </si>
   <si>
     <t>1/12</t>
+  </si>
+  <si>
+    <t>On distingue l'interieur de la maison à travers la vitre</t>
   </si>
 </sst>
 </file>
@@ -430,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -636,11 +627,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,7 +724,13 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,50 +1157,50 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="47.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.08984375" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1192,21 +1213,21 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
@@ -1215,46 +1236,42 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>4</v>
-      </c>
+    <row r="4" spans="1:9" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
@@ -1263,44 +1280,40 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="12" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="111.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
@@ -1309,24 +1322,24 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1334,11 +1347,11 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="125.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -1349,24 +1362,24 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="139" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1374,24 +1387,24 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1399,14 +1412,14 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1"/>
@@ -1414,95 +1427,95 @@
       <c r="H12" s="2"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="128.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="178" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="177.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="183.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="183.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>2</v>
       </c>
@@ -1515,36 +1528,36 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
@@ -1553,15 +1566,15 @@
       <c r="H19" s="2"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
@@ -1570,15 +1583,15 @@
       <c r="H20" s="2"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
@@ -1587,15 +1600,15 @@
       <c r="H21" s="2"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
@@ -1604,15 +1617,15 @@
       <c r="H22" s="2"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
@@ -1621,15 +1634,15 @@
       <c r="H23" s="2"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
@@ -1638,18 +1651,18 @@
       <c r="H24" s="2"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1657,15 +1670,15 @@
       <c r="H25" s="2"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" ht="109" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" ht="108.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
@@ -1674,15 +1687,15 @@
       <c r="H26" s="27"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" ht="104.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="17"/>
@@ -1692,8 +1705,9 @@
       <c r="I27" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
